--- a/CaseAndFatalityDemographicsData/2022-01-07.xlsx
+++ b/CaseAndFatalityDemographicsData/2022-01-07.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\12.30.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\1.6.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2DBFA-DCF7-4126-83C8-C1FB645B59A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F4C8D-10BB-4719-9DE8-4D20AD1B185C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="9720" yWindow="40" windowWidth="9290" windowHeight="10200" tabRatio="806" firstSheet="2" activeTab="3" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +174,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -189,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -241,13 +249,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +323,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,13 +644,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B14" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,9 +847,9 @@
       <selection activeCell="B4" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -840,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -856,7 +876,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -872,7 +892,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -888,7 +908,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -918,12 +938,12 @@
       <selection activeCell="B7" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -939,7 +959,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -955,7 +975,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -971,7 +991,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -987,7 +1007,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1003,7 +1023,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1039,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="15.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1055,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1053,81 +1073,81 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="16"/>
       <c r="C18" s="20"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="16"/>
       <c r="C19" s="20"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E20" s="16"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -1143,13 +1163,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1164,43 +1184,43 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6">
-        <v>31233</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.41879642790098959</v>
+      <c r="B2">
+        <v>31476</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.41896496645724629</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
-        <v>43344</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.58119016331894124</v>
+      <c r="B3">
+        <v>43651</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.58102172292620591</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
-        <v>1.3408780069189305E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="24">
+        <v>1.3310616547758492E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>74578</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="25">
+        <v>75128</v>
+      </c>
+      <c r="C5" s="26">
         <v>1</v>
       </c>
     </row>
@@ -1214,15 +1234,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1237,151 +1257,151 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>14</v>
       </c>
       <c r="C2" s="8">
         <f>B2/$B$15</f>
-        <v>1.8772292096865028E-4</v>
+        <v>1.8634863166861889E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>24</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>3.2181072166054335E-4</v>
+        <v>3.194547971462038E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>82</v>
+      <c r="B4">
+        <v>83</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
-        <v>1.0995199656735231E-3</v>
+        <v>1.1047811734639548E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>690</v>
+      <c r="B5">
+        <v>698</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>9.2520582477406202E-3</v>
+        <v>9.2908103503354274E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
-        <v>2206</v>
+      <c r="B6">
+        <v>2225</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>2.9579768832631609E-2</v>
+        <v>2.9616121818762647E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <v>5326</v>
+      <c r="B7">
+        <v>5379</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>7.1415162648502242E-2</v>
+        <v>7.1597806410392928E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
-        <v>10098</v>
+      <c r="B8">
+        <v>10195</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>0.13540186113867361</v>
+        <v>0.13570173570439784</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>7658</v>
+      <c r="B9">
+        <v>7726</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>0.1026844377698517</v>
+        <v>0.1028378234479821</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>8976</v>
+      <c r="B10">
+        <v>9039</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>0.12035720990104321</v>
+        <v>0.12031466297518902</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <v>9498</v>
+      <c r="B11">
+        <v>9560</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>0.12735659309716002</v>
+        <v>0.12724949419657119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
-        <v>8969</v>
+      <c r="B12">
+        <v>9013</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>0.12026334844055887</v>
+        <v>0.11996858694494729</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
-        <v>21037</v>
+      <c r="B13">
+        <v>21172</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>0.28208050631553544</v>
+        <v>0.28181237354914279</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="8">
@@ -1389,12 +1409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
-        <v>74578</v>
+      <c r="B15" s="25">
+        <v>75128</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
@@ -1411,15 +1431,15 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1430,64 +1450,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1362</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="8">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.8262758454235833E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.8275476520072411E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>7897</v>
+        <v>7949</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10588913620638794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10580609093813226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>32459</v>
+        <v>32661</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="1"/>
-        <v>0.43523559226581565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.43473804706634012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="1"/>
-        <v>6.0205422510659981E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.0563305292301141E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>32366</v>
+        <v>32645</v>
       </c>
       <c r="C6" s="8">
         <f>B6/$B$8</f>
-        <v>0.43398857571938104</v>
+        <v>0.43452507720157596</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -1499,7 +1519,7 @@
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1528,7 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="1"/>
-        <v>6.0339510311351876E-4</v>
+        <v>5.9897774464913217E-4</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
@@ -1520,13 +1540,13 @@
       <c r="N7" s="23"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>74578</v>
+        <v>75128</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="1"/>
@@ -1542,7 +1562,7 @@
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
